--- a/ndonor_summary/ndonor_summary.xlsx
+++ b/ndonor_summary/ndonor_summary.xlsx
@@ -5,16 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blair/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blair/Desktop/ndonor_summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4FE417-5596-C44B-A258-EE56272A2D66}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFA9166-80E2-2440-9D99-7670453E19AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="2380" windowWidth="27640" windowHeight="15720" xr2:uid="{D93E2923-BEE2-8C4C-9C9A-21501D191D9B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{D93E2923-BEE2-8C4C-9C9A-21501D191D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$H$3:$H$12</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$H$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$H$3:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>NOC</t>
   </si>
@@ -46,18 +52,6 @@
   </si>
   <si>
     <t>NNO2</t>
-  </si>
-  <si>
-    <t>ImNOC</t>
-  </si>
-  <si>
-    <t>ImNC</t>
-  </si>
-  <si>
-    <t>ImNCF3</t>
-  </si>
-  <si>
-    <t>ImNNO2</t>
   </si>
   <si>
     <t>ecfp</t>
@@ -76,6 +70,21 @@
   </si>
   <si>
     <t>sigma_p</t>
+  </si>
+  <si>
+    <t>ImOC</t>
+  </si>
+  <si>
+    <t>ImC</t>
+  </si>
+  <si>
+    <t>ImCF3</t>
+  </si>
+  <si>
+    <t>ImNO2</t>
+  </si>
+  <si>
+    <t>Im</t>
   </si>
 </sst>
 </file>
@@ -138,9 +147,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -149,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,6 +173,1074 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ecfp_charge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$H$16:$H$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.104486438832989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.125562892607649</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21917499287099301</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.117633210760302</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.179850088684993</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.20505801106028501</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17249684055077599</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18945164000345799</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29075339912028503</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.32456973842303899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$H$16:$H$25</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.104486438832989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.125562892607649</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.21917499287099301</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.117633210760302</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.179850088684993</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.20505801106028501</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.17249684055077599</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.18945164000345799</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.29075339912028503</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.32456973842303899</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>sigma_p</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NOC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>N</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NCF3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NNO2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ImOC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ImC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Im</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ImCF3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ImNO2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.31970999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.232649999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45658133333333301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56383999999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39318999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.473969999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61706999999999901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBE0-F14C-B2A9-B5823E7D2457}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1608542704"/>
+        <c:axId val="1608544384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1608542704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608544384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1608544384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1608542704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB2E8364-949B-6248-9955-40954FB9C631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,62 +1543,62 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="10.83203125" style="5"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+      <c r="B1" s="7">
         <v>1024</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="1">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7">
         <v>256</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>12</v>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3">
@@ -536,10 +1613,10 @@
       <c r="E3">
         <v>3.4950000000000002E-2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>0.31790000000000002</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>0.31970999999999999</v>
       </c>
       <c r="I3">
@@ -550,7 +1627,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4">
@@ -565,10 +1642,10 @@
       <c r="E4">
         <v>-0.20976866666666599</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>0.28827000000000003</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>0.28660000000000002</v>
       </c>
       <c r="I4">
@@ -579,7 +1656,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5">
@@ -594,10 +1671,10 @@
       <c r="E5">
         <v>0.39228999999999897</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>0.24285999999999999</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.232649999999999</v>
       </c>
       <c r="I5">
@@ -608,7 +1685,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6">
@@ -623,10 +1700,10 @@
       <c r="E6">
         <v>0.35649999999999998</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>0.45970167000000001</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>0.45658133333333301</v>
       </c>
       <c r="I6">
@@ -637,7 +1714,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7">
@@ -652,10 +1729,10 @@
       <c r="E7">
         <v>0.30292999999999998</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.42142000000000002</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>0.56383999999999901</v>
       </c>
       <c r="I7">
@@ -666,8 +1743,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.38783999999999902</v>
@@ -681,10 +1758,10 @@
       <c r="E8">
         <v>0.25199499999999903</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.29448999999999997</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.31239</v>
       </c>
       <c r="I8">
@@ -695,8 +1772,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
+      <c r="A9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>0.45408999999999999</v>
@@ -710,10 +1787,10 @@
       <c r="E9">
         <v>0.27433166666666597</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.35681000000000002</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.35520000000000002</v>
       </c>
       <c r="I9">
@@ -724,8 +1801,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0.46623999999999999</v>
@@ -739,10 +1816,10 @@
       <c r="E10">
         <v>0.47366999999999998</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.38815</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>0.39318999999999998</v>
       </c>
       <c r="I10">
@@ -753,8 +1830,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
+      <c r="A11" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.43806</v>
@@ -768,10 +1845,10 @@
       <c r="E11">
         <v>0.62332999999999905</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.48463000000000001</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>0.473969999999999</v>
       </c>
       <c r="I11">
@@ -782,8 +1859,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
+      <c r="A12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.37407999999999902</v>
@@ -797,10 +1874,10 @@
       <c r="E12">
         <v>0.53817000000000004</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.61277000000000004</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>0.61706999999999901</v>
       </c>
       <c r="I12">
@@ -815,56 +1892,56 @@
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
       <c r="I13"/>
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
+      <c r="B14" s="7">
         <v>1024</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="G14" s="7">
         <v>256</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>12</v>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B16">
@@ -882,7 +1959,7 @@
       <c r="G16">
         <v>0.10466227</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>0.104486438832989</v>
       </c>
       <c r="I16">
@@ -893,7 +1970,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B17">
@@ -911,7 +1988,7 @@
       <c r="G17">
         <v>0.13436408</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>0.125562892607649</v>
       </c>
       <c r="I17">
@@ -922,7 +1999,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18">
@@ -940,7 +2017,7 @@
       <c r="G18">
         <v>0.21832273999999999</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>0.21917499287099301</v>
       </c>
       <c r="I18">
@@ -951,7 +2028,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B19">
@@ -969,7 +2046,7 @@
       <c r="G19">
         <v>0.1163497</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>0.117633210760302</v>
       </c>
       <c r="I19">
@@ -980,7 +2057,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B20">
@@ -998,7 +2075,7 @@
       <c r="G20">
         <v>0.19221753999999999</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>0.179850088684993</v>
       </c>
       <c r="I20">
@@ -1009,8 +2086,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
+      <c r="A21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B21">
         <v>0.21298810858824899</v>
@@ -1027,7 +2104,7 @@
       <c r="G21">
         <v>0.19890535000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>0.20505801106028501</v>
       </c>
       <c r="I21">
@@ -1038,8 +2115,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>6</v>
+      <c r="A22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B22">
         <v>0.14762713808781899</v>
@@ -1056,7 +2133,7 @@
       <c r="G22">
         <v>0.17988530999999999</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0.17249684055077599</v>
       </c>
       <c r="I22">
@@ -1067,8 +2144,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>6</v>
+      <c r="A23" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B23">
         <v>0.123400414910161</v>
@@ -1085,7 +2162,7 @@
       <c r="G23">
         <v>0.18948741</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>0.18945164000345799</v>
       </c>
       <c r="I23">
@@ -1096,8 +2173,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>7</v>
+      <c r="A24" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B24">
         <v>0.22664870703359399</v>
@@ -1114,7 +2191,7 @@
       <c r="G24">
         <v>0.29015076000000001</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>0.29075339912028503</v>
       </c>
       <c r="I24">
@@ -1125,8 +2202,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>8</v>
+      <c r="A25" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B25">
         <v>0.179970979882868</v>
@@ -1143,7 +2220,7 @@
       <c r="G25">
         <v>0.33689586999999999</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>0.32456973842303899</v>
       </c>
       <c r="I25">
@@ -1173,5 +2250,6 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>